--- a/TEST_Automation.xlsx
+++ b/TEST_Automation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3135" windowHeight="1920" tabRatio="806" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3135" windowHeight="1920" tabRatio="806" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="15" r:id="rId1"/>
@@ -21,10 +21,12 @@
     <sheet name="Agile" sheetId="6" r:id="rId7"/>
     <sheet name="RPA" sheetId="7" r:id="rId8"/>
     <sheet name="Jekins" sheetId="8" r:id="rId9"/>
-    <sheet name="UQ_Proj_struc" sheetId="3" r:id="rId10"/>
-    <sheet name="UQ_Error" sheetId="9" r:id="rId11"/>
-    <sheet name="UQ_TC" sheetId="10" r:id="rId12"/>
-    <sheet name="Regression" sheetId="13" r:id="rId13"/>
+    <sheet name="Sel_Play" sheetId="18" r:id="rId10"/>
+    <sheet name="UQ_Proj_struc" sheetId="3" r:id="rId11"/>
+    <sheet name="UQ_Error" sheetId="9" r:id="rId12"/>
+    <sheet name="UQ_TC" sheetId="10" r:id="rId13"/>
+    <sheet name="Regression" sheetId="13" r:id="rId14"/>
+    <sheet name="Sheet11" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="610">
   <si>
     <t>login</t>
   </si>
@@ -2027,12 +2029,450 @@
   <si>
     <t>API Gateway</t>
   </si>
+  <si>
+    <t>22-28</t>
+  </si>
+  <si>
+    <t>29-04</t>
+  </si>
+  <si>
+    <t>05-11 Jun</t>
+  </si>
+  <si>
+    <t>12-18 Jun</t>
+  </si>
+  <si>
+    <t>19-25 Jun</t>
+  </si>
+  <si>
+    <t>26-30 Jun</t>
+  </si>
+  <si>
+    <t>UQ</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Playwright</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Browser Support</t>
+  </si>
+  <si>
+    <t>Chromium, Firefox, and WebKit (note: Playwright tests browser projects, not stock browsers)</t>
+  </si>
+  <si>
+    <t>Chrome, Safari, Firefox, Opera, Edge, and IE</t>
+  </si>
+  <si>
+    <t>Language Support</t>
+  </si>
+  <si>
+    <t>Java, Python, .NET C#, TypeScript and JavaScript.</t>
+  </si>
+  <si>
+    <t>Java, Python, C#, Ruby, Perl, PHP, and JavaScript</t>
+  </si>
+  <si>
+    <t>Test Runner Frameworks Support</t>
+  </si>
+  <si>
+    <t>Jest/Jasmine, AVA, Mocha, and Vitest</t>
+  </si>
+  <si>
+    <t>Jest/Jasmine, Mocha, WebDriver IO, Protractor, TestNG, JUnit, and NUnit</t>
+  </si>
+  <si>
+    <t>Operating System Support</t>
+  </si>
+  <si>
+    <t>Windows, Mac OS and Linux</t>
+  </si>
+  <si>
+    <t>Windows, Mac OS, Linux and Solaris</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Headless browser with event-driven architecture</t>
+  </si>
+  <si>
+    <t>4-layer architecture (Selenium Client Library, JSON Wire Protocol, Browser Drivers and Browsers)</t>
+  </si>
+  <si>
+    <t>Integration with CI</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>NodeJS</t>
+  </si>
+  <si>
+    <t>Selenium Bindings (for your language), Browser Drivers and Selenium Standalone Server</t>
+  </si>
+  <si>
+    <t>Real Device Support</t>
+  </si>
+  <si>
+    <t>Native mobile emulation (and experimental real Android support)</t>
+  </si>
+  <si>
+    <t>Real device clouds and remote servers</t>
+  </si>
+  <si>
+    <t>Community Support</t>
+  </si>
+  <si>
+    <t>Open Source</t>
+  </si>
+  <si>
+    <t>Free and open source, backed by Microsoft</t>
+  </si>
+  <si>
+    <t>Free and open source, backed by large community</t>
+  </si>
+  <si>
+    <t>Ease of Installation</t>
+  </si>
+  <si>
+    <t>Easy to Install</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ducmentation </t>
+  </si>
+  <si>
+    <t>Easy to understand documentation</t>
+  </si>
+  <si>
+    <t>Documentation as not good</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>More extensive and more dependencies</t>
+  </si>
+  <si>
+    <t>Have to rerun  tests to run in on other browsers</t>
+  </si>
+  <si>
+    <t>run in multi browsers</t>
+  </si>
+  <si>
+    <t>Can run on multiple browser with same test</t>
+  </si>
+  <si>
+    <t>Supports multipgage  ans third party implementation</t>
+  </si>
+  <si>
+    <t>APIS allow 3rd parties to run services providing selenium grid like feature</t>
+  </si>
+  <si>
+    <t>Fewer dependencies tham Cypress</t>
+  </si>
+  <si>
+    <t>Learning and Understanding</t>
+  </si>
+  <si>
+    <t>Google Chrome, Firefox, and any chromium-based browsers</t>
+  </si>
+  <si>
+    <t>Easy of setup</t>
+  </si>
+  <si>
+    <t>Relatively Low No additional browser drivers are required and come with a bundled chrome browser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Driver Dependencies</t>
+  </si>
+  <si>
+    <t>Dependent on specific Browser Drivers</t>
+  </si>
+  <si>
+    <t>No driver dependency</t>
+  </si>
+  <si>
+    <t>Extensive integration options. Ranging from CI/CD tools, Reporting, etc…</t>
+  </si>
+  <si>
+    <t>Test Scope</t>
+  </si>
+  <si>
+    <t>Unit, security, integration, end-to-end testing</t>
+  </si>
+  <si>
+    <t>end-to-end testing</t>
+  </si>
+  <si>
+    <t>Parallel Testing and Load Balancing</t>
+  </si>
+  <si>
+    <t>Yes, Selenium Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Yes</t>
+  </si>
+  <si>
+    <t>Support for Multi Tab / Browser Instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+No</t>
+  </si>
+  <si>
+    <t>Execution Speed</t>
+  </si>
+  <si>
+    <t>Comparatively slow as commands are sent to the browser through the network</t>
+  </si>
+  <si>
+    <t>Fast as tests are executed within the browser.</t>
+  </si>
+  <si>
+    <t>Element Scope</t>
+  </si>
+  <si>
+    <t>All elements in DOM</t>
+  </si>
+  <si>
+    <t>All elements in the DOM as well as other objects such as functions, service works, etc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> good official documentation</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+All features are offered completely free of charge</t>
+  </si>
+  <si>
+    <t>All core features are offered completely free, however, some advanced features require a subscription.</t>
+  </si>
+  <si>
+    <t>Mobile Testing Support</t>
+  </si>
+  <si>
+    <t>Yes, Through Appium</t>
+  </si>
+  <si>
+    <t>JavaScript/TypeScript</t>
+  </si>
+  <si>
+    <t>Supports Mocha, Jest/Jasmine, Cucumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Ease of use</t>
+  </si>
+  <si>
+    <t>Playwright has a user-friendly interface and requires minimal setup</t>
+  </si>
+  <si>
+    <t>Selenium requires more setup and has a steeper learning curve</t>
+  </si>
+  <si>
+    <t>Cypress has a user-friendly interface and requires minimal setup</t>
+  </si>
+  <si>
+    <t>Test Writing Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Intuitive</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>DOM manipulation</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Moderate</t>
+  </si>
+  <si>
+    <t>Large and active community with good documentation and support resources</t>
+  </si>
+  <si>
+    <t>Active community with good documentation and support resources</t>
+  </si>
+  <si>
+    <t>Parallel Execution</t>
+  </si>
+  <si>
+    <t>Supports parallel execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Supports parallel execution</t>
+  </si>
+  <si>
+    <t>Supports parallel execution using CI/CD tool</t>
+  </si>
+  <si>
+    <t>Built-in network traffic control</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Relatively low</t>
+  </si>
+  <si>
+    <t>Support for headless mode</t>
+  </si>
+  <si>
+    <t>Setup complexity</t>
+  </si>
+  <si>
+    <t>Easy Setup</t>
+  </si>
+  <si>
+    <t>Requires some effort to build the framework</t>
+  </si>
+  <si>
+    <t>Iframe Support</t>
+  </si>
+  <si>
+    <t>Iframe support through plugin e.g. cypress-iframe</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>No driver required</t>
+  </si>
+  <si>
+    <t>Each browser requires its driver</t>
+  </si>
+  <si>
+    <t>No need of driver bindings</t>
+  </si>
+  <si>
+    <t>Multi Tab Support</t>
+  </si>
+  <si>
+    <t>Drag &amp; Drop Support</t>
+  </si>
+  <si>
+    <t>Test Assertions Libraries</t>
+  </si>
+  <si>
+    <t>Mocha, Chai</t>
+  </si>
+  <si>
+    <t>PyUnit, JUnit, TestNG almost any language-specific test framework can be adapted.</t>
+  </si>
+  <si>
+    <t>Inbuilt reports</t>
+  </si>
+  <si>
+    <t>Default Reporter is Spec, Customizable for other supported reporters</t>
+  </si>
+  <si>
+    <t>Cross-Domain Support</t>
+  </si>
+  <si>
+    <t>Debug features</t>
+  </si>
+  <si>
+    <t>Playwright has built-in debugging tools and a time-traveling feature for easy debugging</t>
+  </si>
+  <si>
+    <t>Selenium does not have built-in debugging tools</t>
+  </si>
+  <si>
+    <t>Cypress has built-in debugging tools and a time-traveling feature for easy debugging</t>
+  </si>
+  <si>
+    <t>Automatic Waiting</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Provided as Premium/Paid Feature</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Built-in Screenshot, VIDEO feature</t>
+  </si>
+  <si>
+    <t>No built-in screenshot feature. Customization is required to add this feature.</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Free for open-source projects, paid for commercial use</t>
+  </si>
+  <si>
+    <t>Free for all use cases</t>
+  </si>
+  <si>
+    <t>Though Selenium is constantly in development to build new features, Playwright already offers capabilities that outshine Selenium in terms of speed, efficiency, and adaptability to the modern testing sphere.</t>
+  </si>
+  <si>
+    <t>Doesnt support.Comparatively limited options. Inbuilt support for slack and GitHub integrations</t>
+  </si>
+  <si>
+    <t>multipgage, third party implementation,Integrations (3rd Party Tools/Platform)</t>
+  </si>
+  <si>
+    <t>Newer product with smaller comminity.Smaller but growing set of community resources</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Yes  Browser Context</t>
+  </si>
+  <si>
+    <t>Client Language Bindings, and Browser Drivers should be installed</t>
+  </si>
+  <si>
+    <t>Medium Requires both Selenium and the browser drivers to be configured before utilizing selenium and build framework.It does not support real devices but supports emulators</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2246,8 +2686,139 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source-sans-pro"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2278,8 +2849,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2287,12 +3044,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2371,21 +3368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2417,10 +3399,141 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Akzent1" xfId="2"/>
+    <cellStyle name="20 % - Akzent2" xfId="3"/>
+    <cellStyle name="20 % - Akzent3" xfId="4"/>
+    <cellStyle name="20 % - Akzent4" xfId="5"/>
+    <cellStyle name="20 % - Akzent5" xfId="6"/>
+    <cellStyle name="20 % - Akzent6" xfId="7"/>
+    <cellStyle name="40 % - Akzent1" xfId="8"/>
+    <cellStyle name="40 % - Akzent2" xfId="9"/>
+    <cellStyle name="40 % - Akzent3" xfId="10"/>
+    <cellStyle name="40 % - Akzent4" xfId="11"/>
+    <cellStyle name="40 % - Akzent5" xfId="12"/>
+    <cellStyle name="40 % - Akzent6" xfId="13"/>
+    <cellStyle name="60 % - Akzent1" xfId="14"/>
+    <cellStyle name="60 % - Akzent2" xfId="15"/>
+    <cellStyle name="60 % - Akzent3" xfId="16"/>
+    <cellStyle name="60 % - Akzent4" xfId="17"/>
+    <cellStyle name="60 % - Akzent5" xfId="18"/>
+    <cellStyle name="60 % - Akzent6" xfId="19"/>
+    <cellStyle name="Akzent1" xfId="20"/>
+    <cellStyle name="Akzent2" xfId="21"/>
+    <cellStyle name="Akzent3" xfId="22"/>
+    <cellStyle name="Akzent4" xfId="23"/>
+    <cellStyle name="Akzent5" xfId="24"/>
+    <cellStyle name="Akzent6" xfId="25"/>
+    <cellStyle name="Ausgabe" xfId="26"/>
+    <cellStyle name="Berechnung" xfId="27"/>
+    <cellStyle name="Eingabe" xfId="28"/>
+    <cellStyle name="Ergebnis" xfId="29"/>
+    <cellStyle name="Erklärender Text" xfId="30"/>
+    <cellStyle name="Gut" xfId="31"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notiz" xfId="32"/>
+    <cellStyle name="Schlecht" xfId="33"/>
+    <cellStyle name="Überschrift" xfId="34"/>
+    <cellStyle name="Überschrift 1" xfId="35"/>
+    <cellStyle name="Überschrift 2" xfId="36"/>
+    <cellStyle name="Überschrift 3" xfId="37"/>
+    <cellStyle name="Überschrift 4" xfId="38"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="39"/>
+    <cellStyle name="Warnender Text" xfId="40"/>
+    <cellStyle name="Zelle überprüfen" xfId="41"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3332,7 +4445,7 @@
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="37" t="s">
         <v>292</v>
       </c>
       <c r="C27" s="33" t="s">
@@ -3343,7 +4456,7 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="37" t="s">
         <v>289</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -3354,7 +4467,7 @@
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="37" t="s">
         <v>286</v>
       </c>
       <c r="C29" s="33" t="s">
@@ -3362,15 +4475,15 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="38" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="37" t="s">
         <v>282</v>
       </c>
       <c r="C31" s="33" t="s">
@@ -3381,12 +4494,12 @@
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="37" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="37" t="s">
         <v>278</v>
       </c>
       <c r="C33" s="33" t="s">
@@ -3394,7 +4507,7 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="37" t="s">
         <v>276</v>
       </c>
       <c r="C34" s="33" t="s">
@@ -3402,52 +4515,52 @@
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="37" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="37" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="37" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="37" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="37" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="37" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="37" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="37" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="37" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="37" t="s">
         <v>265</v>
       </c>
       <c r="C45" s="33" t="s">
@@ -3458,12 +4571,12 @@
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="37" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="37" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3481,6 +4594,897 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>488</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>490</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>491</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="58" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>495</v>
+      </c>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="62" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>605</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>561</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>562</v>
+      </c>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A12" s="35"/>
+      <c r="B12" s="62" t="s">
+        <v>501</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>503</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="62" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>505</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>505</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A14" s="35"/>
+      <c r="B14" s="62" t="s">
+        <v>507</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>509</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>508</v>
+      </c>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="62" t="s">
+        <v>604</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>515</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>603</v>
+      </c>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="62" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>517</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>608</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>511</v>
+      </c>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="62" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62" t="s">
+        <v>528</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>529</v>
+      </c>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A20" s="35"/>
+      <c r="B20" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>570</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>609</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>521</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="35"/>
+      <c r="B21" s="79" t="s">
+        <v>551</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>552</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>553</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>554</v>
+      </c>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A22" s="35"/>
+      <c r="B22" s="79" t="s">
+        <v>555</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>556</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>557</v>
+      </c>
+      <c r="E22" s="79" t="s">
+        <v>556</v>
+      </c>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="35"/>
+      <c r="B23" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>573</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>574</v>
+      </c>
+      <c r="E23" s="79" t="s">
+        <v>573</v>
+      </c>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="62" t="s">
+        <v>530</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>607</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>531</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>532</v>
+      </c>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="62" t="s">
+        <v>513</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>514</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>534</v>
+      </c>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="35"/>
+      <c r="B28" s="79" t="s">
+        <v>563</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>564</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>565</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>566</v>
+      </c>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A30" s="35"/>
+      <c r="B30" s="62" t="s">
+        <v>535</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>606</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>536</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="F30" s="35"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="79" t="s">
+        <v>538</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79" t="s">
+        <v>539</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>540</v>
+      </c>
+      <c r="F31" s="35"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="35"/>
+      <c r="B32" s="79" t="s">
+        <v>558</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>559</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>560</v>
+      </c>
+      <c r="E32" s="79" t="s">
+        <v>559</v>
+      </c>
+      <c r="F32" s="35"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="35"/>
+      <c r="B34" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="E34" s="79"/>
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A36" s="35"/>
+      <c r="B36" s="79" t="s">
+        <v>567</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>568</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="E36" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="F36" s="35"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A37" s="35"/>
+      <c r="B37" s="79" t="s">
+        <v>571</v>
+      </c>
+      <c r="C37" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="E37" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="F37" s="35"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="79" t="s">
+        <v>563</v>
+      </c>
+      <c r="C38" s="79" t="s">
+        <v>564</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>564</v>
+      </c>
+      <c r="E38" s="79" t="s">
+        <v>566</v>
+      </c>
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="35"/>
+      <c r="B39" s="79" t="s">
+        <v>567</v>
+      </c>
+      <c r="C39" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A41" s="35"/>
+      <c r="B41" s="79" t="s">
+        <v>575</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="E41" s="79" t="s">
+        <v>576</v>
+      </c>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A42" s="35"/>
+      <c r="B42" s="79" t="s">
+        <v>577</v>
+      </c>
+      <c r="C42" s="79" t="s">
+        <v>578</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>579</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>580</v>
+      </c>
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A43" s="35"/>
+      <c r="B43" s="79" t="s">
+        <v>581</v>
+      </c>
+      <c r="C43" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="E43" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="F43" s="35"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A44" s="35"/>
+      <c r="B44" s="79" t="s">
+        <v>582</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="E44" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A45" s="35"/>
+      <c r="B45" s="79" t="s">
+        <v>583</v>
+      </c>
+      <c r="C45" s="79" t="s">
+        <v>584</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>585</v>
+      </c>
+      <c r="E45" s="79" t="s">
+        <v>584</v>
+      </c>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A46" s="35"/>
+      <c r="B46" s="79" t="s">
+        <v>586</v>
+      </c>
+      <c r="C46" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="E46" s="79" t="s">
+        <v>587</v>
+      </c>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A47" s="35"/>
+      <c r="B47" s="79" t="s">
+        <v>588</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="E47" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="F47" s="35"/>
+    </row>
+    <row r="48" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A48" s="35"/>
+      <c r="B48" s="79" t="s">
+        <v>589</v>
+      </c>
+      <c r="C48" s="79" t="s">
+        <v>590</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>591</v>
+      </c>
+      <c r="E48" s="79" t="s">
+        <v>592</v>
+      </c>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A49" s="35"/>
+      <c r="B49" s="79" t="s">
+        <v>593</v>
+      </c>
+      <c r="C49" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="E49" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="F49" s="35"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A50" s="35"/>
+      <c r="B50" s="79" t="s">
+        <v>594</v>
+      </c>
+      <c r="C50" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="E50" s="79" t="s">
+        <v>595</v>
+      </c>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A51" s="35"/>
+      <c r="B51" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>596</v>
+      </c>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79" t="s">
+        <v>596</v>
+      </c>
+      <c r="F51" s="35"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A52" s="35"/>
+      <c r="B52" s="79" t="s">
+        <v>597</v>
+      </c>
+      <c r="C52" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>598</v>
+      </c>
+      <c r="E52" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="F52" s="35"/>
+    </row>
+    <row r="53" spans="1:6" ht="30">
+      <c r="A53" s="35"/>
+      <c r="B53" s="84" t="s">
+        <v>542</v>
+      </c>
+      <c r="C53" s="79" t="s">
+        <v>600</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>543</v>
+      </c>
+      <c r="E53" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="F53" s="35"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A54" s="35"/>
+      <c r="B54" s="61" t="s">
+        <v>599</v>
+      </c>
+      <c r="C54" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="D54" s="61" t="s">
+        <v>601</v>
+      </c>
+      <c r="E54" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="F54" s="35"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A55" s="35"/>
+      <c r="B55" s="62" t="s">
+        <v>523</v>
+      </c>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62" t="s">
+        <v>524</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>525</v>
+      </c>
+      <c r="F55" s="35"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A56" s="35"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="35"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location=":~:text=Playwright%20tests%20browser%20projects" display="https://applitools.com/blog/lightning-fast-playwright-tests-cross-browser/ - :~:text=Playwright%20tests%20browser%20projects"/>
+    <hyperlink ref="C9" r:id="rId2" location=":~:text=mobile%20apps" display="https://applitools.com/blog/top-playwright-questions-answered/ - :~:text=mobile%20apps"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K41"/>
   <sheetViews>
@@ -3620,7 +5624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3635,7 +5639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -3854,11 +5858,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -3886,7 +5890,7 @@
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="36" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3899,7 +5903,7 @@
       <c r="A39">
         <v>3</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="36" t="s">
         <v>213</v>
       </c>
       <c r="C39" t="s">
@@ -3915,7 +5919,7 @@
       <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="36" t="s">
         <v>216</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -3937,6 +5941,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="C1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4012,12 +6098,12 @@
       <c r="F10" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="24" t="s">
@@ -4026,16 +6112,16 @@
       <c r="D11" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="2:15">
       <c r="F12" s="24" t="s">
@@ -4137,13 +6223,13 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="27" spans="2:12">
       <c r="D27" s="24" t="s">
@@ -4180,10 +6266,10 @@
       </c>
     </row>
     <row r="35" spans="4:11">
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="36"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="4:11" ht="15.75">
       <c r="G36" t="s">
@@ -4206,8 +6292,8 @@
     </row>
     <row r="39" spans="4:11" ht="15.75">
       <c r="F39" s="28"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
     </row>
     <row r="40" spans="4:11">
       <c r="F40" s="28"/>
@@ -4220,92 +6306,92 @@
       <c r="H41" s="30"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
     </row>
     <row r="43" spans="4:11">
       <c r="D43" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
     </row>
     <row r="45" spans="4:11">
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
     </row>
     <row r="46" spans="4:11">
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
     </row>
     <row r="47" spans="4:11">
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="6:11">
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
     </row>
     <row r="50" spans="6:11">
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
     </row>
     <row r="84" spans="6:25" ht="15.75">
       <c r="F84" s="28"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
     </row>
     <row r="85" spans="6:25">
       <c r="F85" s="28"/>
@@ -4318,1173 +6404,1227 @@
       <c r="H86" s="30"/>
     </row>
     <row r="87" spans="6:25">
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
-      <c r="Y87" s="35"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="55"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="55"/>
+      <c r="T87" s="55"/>
+      <c r="U87" s="55"/>
+      <c r="V87" s="55"/>
+      <c r="W87" s="55"/>
+      <c r="X87" s="55"/>
+      <c r="Y87" s="55"/>
     </row>
     <row r="88" spans="6:25">
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="35"/>
-      <c r="V88" s="35"/>
-      <c r="W88" s="35"/>
-      <c r="X88" s="35"/>
-      <c r="Y88" s="35"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="55"/>
+      <c r="S88" s="55"/>
+      <c r="T88" s="55"/>
+      <c r="U88" s="55"/>
+      <c r="V88" s="55"/>
+      <c r="W88" s="55"/>
+      <c r="X88" s="55"/>
+      <c r="Y88" s="55"/>
     </row>
     <row r="89" spans="6:25">
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="35"/>
-      <c r="V89" s="35"/>
-      <c r="W89" s="35"/>
-      <c r="X89" s="35"/>
-      <c r="Y89" s="35"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="55"/>
+      <c r="P89" s="55"/>
+      <c r="Q89" s="55"/>
+      <c r="R89" s="55"/>
+      <c r="S89" s="55"/>
+      <c r="T89" s="55"/>
+      <c r="U89" s="55"/>
+      <c r="V89" s="55"/>
+      <c r="W89" s="55"/>
+      <c r="X89" s="55"/>
+      <c r="Y89" s="55"/>
     </row>
     <row r="90" spans="6:25">
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="35"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="35"/>
-      <c r="V90" s="35"/>
-      <c r="W90" s="35"/>
-      <c r="X90" s="35"/>
-      <c r="Y90" s="35"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="55"/>
+      <c r="O90" s="55"/>
+      <c r="P90" s="55"/>
+      <c r="Q90" s="55"/>
+      <c r="R90" s="55"/>
+      <c r="S90" s="55"/>
+      <c r="T90" s="55"/>
+      <c r="U90" s="55"/>
+      <c r="V90" s="55"/>
+      <c r="W90" s="55"/>
+      <c r="X90" s="55"/>
+      <c r="Y90" s="55"/>
     </row>
     <row r="91" spans="6:25">
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="35"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="35"/>
-      <c r="Y91" s="35"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="55"/>
+      <c r="N91" s="55"/>
+      <c r="O91" s="55"/>
+      <c r="P91" s="55"/>
+      <c r="Q91" s="55"/>
+      <c r="R91" s="55"/>
+      <c r="S91" s="55"/>
+      <c r="T91" s="55"/>
+      <c r="U91" s="55"/>
+      <c r="V91" s="55"/>
+      <c r="W91" s="55"/>
+      <c r="X91" s="55"/>
+      <c r="Y91" s="55"/>
     </row>
     <row r="92" spans="6:25">
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-      <c r="V92" s="35"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="35"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="55"/>
+      <c r="P92" s="55"/>
+      <c r="Q92" s="55"/>
+      <c r="R92" s="55"/>
+      <c r="S92" s="55"/>
+      <c r="T92" s="55"/>
+      <c r="U92" s="55"/>
+      <c r="V92" s="55"/>
+      <c r="W92" s="55"/>
+      <c r="X92" s="55"/>
+      <c r="Y92" s="55"/>
     </row>
     <row r="93" spans="6:25">
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="35"/>
-      <c r="X93" s="35"/>
-      <c r="Y93" s="35"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="55"/>
+      <c r="N93" s="55"/>
+      <c r="O93" s="55"/>
+      <c r="P93" s="55"/>
+      <c r="Q93" s="55"/>
+      <c r="R93" s="55"/>
+      <c r="S93" s="55"/>
+      <c r="T93" s="55"/>
+      <c r="U93" s="55"/>
+      <c r="V93" s="55"/>
+      <c r="W93" s="55"/>
+      <c r="X93" s="55"/>
+      <c r="Y93" s="55"/>
     </row>
     <row r="94" spans="6:25">
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35"/>
-      <c r="V94" s="35"/>
-      <c r="W94" s="35"/>
-      <c r="X94" s="35"/>
-      <c r="Y94" s="35"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="55"/>
+      <c r="P94" s="55"/>
+      <c r="Q94" s="55"/>
+      <c r="R94" s="55"/>
+      <c r="S94" s="55"/>
+      <c r="T94" s="55"/>
+      <c r="U94" s="55"/>
+      <c r="V94" s="55"/>
+      <c r="W94" s="55"/>
+      <c r="X94" s="55"/>
+      <c r="Y94" s="55"/>
     </row>
     <row r="95" spans="6:25">
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="35"/>
-      <c r="V95" s="35"/>
-      <c r="W95" s="35"/>
-      <c r="X95" s="35"/>
-      <c r="Y95" s="35"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="55"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="55"/>
+      <c r="P95" s="55"/>
+      <c r="Q95" s="55"/>
+      <c r="R95" s="55"/>
+      <c r="S95" s="55"/>
+      <c r="T95" s="55"/>
+      <c r="U95" s="55"/>
+      <c r="V95" s="55"/>
+      <c r="W95" s="55"/>
+      <c r="X95" s="55"/>
+      <c r="Y95" s="55"/>
     </row>
     <row r="96" spans="6:25">
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-      <c r="V96" s="35"/>
-      <c r="W96" s="35"/>
-      <c r="X96" s="35"/>
-      <c r="Y96" s="35"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="55"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="55"/>
+      <c r="P96" s="55"/>
+      <c r="Q96" s="55"/>
+      <c r="R96" s="55"/>
+      <c r="S96" s="55"/>
+      <c r="T96" s="55"/>
+      <c r="U96" s="55"/>
+      <c r="V96" s="55"/>
+      <c r="W96" s="55"/>
+      <c r="X96" s="55"/>
+      <c r="Y96" s="55"/>
     </row>
     <row r="97" spans="6:25">
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
-      <c r="V97" s="35"/>
-      <c r="W97" s="35"/>
-      <c r="X97" s="35"/>
-      <c r="Y97" s="35"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="55"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="55"/>
+      <c r="P97" s="55"/>
+      <c r="Q97" s="55"/>
+      <c r="R97" s="55"/>
+      <c r="S97" s="55"/>
+      <c r="T97" s="55"/>
+      <c r="U97" s="55"/>
+      <c r="V97" s="55"/>
+      <c r="W97" s="55"/>
+      <c r="X97" s="55"/>
+      <c r="Y97" s="55"/>
     </row>
     <row r="98" spans="6:25">
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="35"/>
-      <c r="N98" s="35"/>
-      <c r="O98" s="35"/>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="35"/>
-      <c r="R98" s="35"/>
-      <c r="S98" s="35"/>
-      <c r="T98" s="35"/>
-      <c r="U98" s="35"/>
-      <c r="V98" s="35"/>
-      <c r="W98" s="35"/>
-      <c r="X98" s="35"/>
-      <c r="Y98" s="35"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="55"/>
+      <c r="Q98" s="55"/>
+      <c r="R98" s="55"/>
+      <c r="S98" s="55"/>
+      <c r="T98" s="55"/>
+      <c r="U98" s="55"/>
+      <c r="V98" s="55"/>
+      <c r="W98" s="55"/>
+      <c r="X98" s="55"/>
+      <c r="Y98" s="55"/>
     </row>
     <row r="99" spans="6:25">
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="35"/>
-      <c r="T99" s="35"/>
-      <c r="U99" s="35"/>
-      <c r="V99" s="35"/>
-      <c r="W99" s="35"/>
-      <c r="X99" s="35"/>
-      <c r="Y99" s="35"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
+      <c r="Q99" s="55"/>
+      <c r="R99" s="55"/>
+      <c r="S99" s="55"/>
+      <c r="T99" s="55"/>
+      <c r="U99" s="55"/>
+      <c r="V99" s="55"/>
+      <c r="W99" s="55"/>
+      <c r="X99" s="55"/>
+      <c r="Y99" s="55"/>
     </row>
     <row r="100" spans="6:25">
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="35"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="35"/>
-      <c r="P100" s="35"/>
-      <c r="Q100" s="35"/>
-      <c r="R100" s="35"/>
-      <c r="S100" s="35"/>
-      <c r="T100" s="35"/>
-      <c r="U100" s="35"/>
-      <c r="V100" s="35"/>
-      <c r="W100" s="35"/>
-      <c r="X100" s="35"/>
-      <c r="Y100" s="35"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="55"/>
+      <c r="Q100" s="55"/>
+      <c r="R100" s="55"/>
+      <c r="S100" s="55"/>
+      <c r="T100" s="55"/>
+      <c r="U100" s="55"/>
+      <c r="V100" s="55"/>
+      <c r="W100" s="55"/>
+      <c r="X100" s="55"/>
+      <c r="Y100" s="55"/>
     </row>
     <row r="101" spans="6:25">
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="35"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="35"/>
-      <c r="U101" s="35"/>
-      <c r="V101" s="35"/>
-      <c r="W101" s="35"/>
-      <c r="X101" s="35"/>
-      <c r="Y101" s="35"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="55"/>
+      <c r="L101" s="55"/>
+      <c r="M101" s="55"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="55"/>
+      <c r="P101" s="55"/>
+      <c r="Q101" s="55"/>
+      <c r="R101" s="55"/>
+      <c r="S101" s="55"/>
+      <c r="T101" s="55"/>
+      <c r="U101" s="55"/>
+      <c r="V101" s="55"/>
+      <c r="W101" s="55"/>
+      <c r="X101" s="55"/>
+      <c r="Y101" s="55"/>
     </row>
     <row r="102" spans="6:25">
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="35"/>
-      <c r="M102" s="35"/>
-      <c r="N102" s="35"/>
-      <c r="O102" s="35"/>
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="35"/>
-      <c r="T102" s="35"/>
-      <c r="U102" s="35"/>
-      <c r="V102" s="35"/>
-      <c r="W102" s="35"/>
-      <c r="X102" s="35"/>
-      <c r="Y102" s="35"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="55"/>
+      <c r="L102" s="55"/>
+      <c r="M102" s="55"/>
+      <c r="N102" s="55"/>
+      <c r="O102" s="55"/>
+      <c r="P102" s="55"/>
+      <c r="Q102" s="55"/>
+      <c r="R102" s="55"/>
+      <c r="S102" s="55"/>
+      <c r="T102" s="55"/>
+      <c r="U102" s="55"/>
+      <c r="V102" s="55"/>
+      <c r="W102" s="55"/>
+      <c r="X102" s="55"/>
+      <c r="Y102" s="55"/>
     </row>
     <row r="103" spans="6:25">
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
-      <c r="S103" s="35"/>
-      <c r="T103" s="35"/>
-      <c r="U103" s="35"/>
-      <c r="V103" s="35"/>
-      <c r="W103" s="35"/>
-      <c r="X103" s="35"/>
-      <c r="Y103" s="35"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="55"/>
+      <c r="M103" s="55"/>
+      <c r="N103" s="55"/>
+      <c r="O103" s="55"/>
+      <c r="P103" s="55"/>
+      <c r="Q103" s="55"/>
+      <c r="R103" s="55"/>
+      <c r="S103" s="55"/>
+      <c r="T103" s="55"/>
+      <c r="U103" s="55"/>
+      <c r="V103" s="55"/>
+      <c r="W103" s="55"/>
+      <c r="X103" s="55"/>
+      <c r="Y103" s="55"/>
     </row>
     <row r="104" spans="6:25">
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="35"/>
-      <c r="M104" s="35"/>
-      <c r="N104" s="35"/>
-      <c r="O104" s="35"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
-      <c r="R104" s="35"/>
-      <c r="S104" s="35"/>
-      <c r="T104" s="35"/>
-      <c r="U104" s="35"/>
-      <c r="V104" s="35"/>
-      <c r="W104" s="35"/>
-      <c r="X104" s="35"/>
-      <c r="Y104" s="35"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="55"/>
+      <c r="K104" s="55"/>
+      <c r="L104" s="55"/>
+      <c r="M104" s="55"/>
+      <c r="N104" s="55"/>
+      <c r="O104" s="55"/>
+      <c r="P104" s="55"/>
+      <c r="Q104" s="55"/>
+      <c r="R104" s="55"/>
+      <c r="S104" s="55"/>
+      <c r="T104" s="55"/>
+      <c r="U104" s="55"/>
+      <c r="V104" s="55"/>
+      <c r="W104" s="55"/>
+      <c r="X104" s="55"/>
+      <c r="Y104" s="55"/>
     </row>
     <row r="105" spans="6:25">
-      <c r="F105" s="35"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="35"/>
-      <c r="M105" s="35"/>
-      <c r="N105" s="35"/>
-      <c r="O105" s="35"/>
-      <c r="P105" s="35"/>
-      <c r="Q105" s="35"/>
-      <c r="R105" s="35"/>
-      <c r="S105" s="35"/>
-      <c r="T105" s="35"/>
-      <c r="U105" s="35"/>
-      <c r="V105" s="35"/>
-      <c r="W105" s="35"/>
-      <c r="X105" s="35"/>
-      <c r="Y105" s="35"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="55"/>
+      <c r="M105" s="55"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="55"/>
+      <c r="P105" s="55"/>
+      <c r="Q105" s="55"/>
+      <c r="R105" s="55"/>
+      <c r="S105" s="55"/>
+      <c r="T105" s="55"/>
+      <c r="U105" s="55"/>
+      <c r="V105" s="55"/>
+      <c r="W105" s="55"/>
+      <c r="X105" s="55"/>
+      <c r="Y105" s="55"/>
     </row>
     <row r="106" spans="6:25">
-      <c r="F106" s="35"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="35"/>
-      <c r="L106" s="35"/>
-      <c r="M106" s="35"/>
-      <c r="N106" s="35"/>
-      <c r="O106" s="35"/>
-      <c r="P106" s="35"/>
-      <c r="Q106" s="35"/>
-      <c r="R106" s="35"/>
-      <c r="S106" s="35"/>
-      <c r="T106" s="35"/>
-      <c r="U106" s="35"/>
-      <c r="V106" s="35"/>
-      <c r="W106" s="35"/>
-      <c r="X106" s="35"/>
-      <c r="Y106" s="35"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="55"/>
+      <c r="J106" s="55"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="55"/>
+      <c r="M106" s="55"/>
+      <c r="N106" s="55"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="55"/>
+      <c r="Q106" s="55"/>
+      <c r="R106" s="55"/>
+      <c r="S106" s="55"/>
+      <c r="T106" s="55"/>
+      <c r="U106" s="55"/>
+      <c r="V106" s="55"/>
+      <c r="W106" s="55"/>
+      <c r="X106" s="55"/>
+      <c r="Y106" s="55"/>
     </row>
     <row r="107" spans="6:25">
-      <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="35"/>
-      <c r="M107" s="35"/>
-      <c r="N107" s="35"/>
-      <c r="O107" s="35"/>
-      <c r="P107" s="35"/>
-      <c r="Q107" s="35"/>
-      <c r="R107" s="35"/>
-      <c r="S107" s="35"/>
-      <c r="T107" s="35"/>
-      <c r="U107" s="35"/>
-      <c r="V107" s="35"/>
-      <c r="W107" s="35"/>
-      <c r="X107" s="35"/>
-      <c r="Y107" s="35"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="55"/>
+      <c r="L107" s="55"/>
+      <c r="M107" s="55"/>
+      <c r="N107" s="55"/>
+      <c r="O107" s="55"/>
+      <c r="P107" s="55"/>
+      <c r="Q107" s="55"/>
+      <c r="R107" s="55"/>
+      <c r="S107" s="55"/>
+      <c r="T107" s="55"/>
+      <c r="U107" s="55"/>
+      <c r="V107" s="55"/>
+      <c r="W107" s="55"/>
+      <c r="X107" s="55"/>
+      <c r="Y107" s="55"/>
     </row>
     <row r="108" spans="6:25">
-      <c r="F108" s="35"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="35"/>
-      <c r="M108" s="35"/>
-      <c r="N108" s="35"/>
-      <c r="O108" s="35"/>
-      <c r="P108" s="35"/>
-      <c r="Q108" s="35"/>
-      <c r="R108" s="35"/>
-      <c r="S108" s="35"/>
-      <c r="T108" s="35"/>
-      <c r="U108" s="35"/>
-      <c r="V108" s="35"/>
-      <c r="W108" s="35"/>
-      <c r="X108" s="35"/>
-      <c r="Y108" s="35"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="55"/>
+      <c r="K108" s="55"/>
+      <c r="L108" s="55"/>
+      <c r="M108" s="55"/>
+      <c r="N108" s="55"/>
+      <c r="O108" s="55"/>
+      <c r="P108" s="55"/>
+      <c r="Q108" s="55"/>
+      <c r="R108" s="55"/>
+      <c r="S108" s="55"/>
+      <c r="T108" s="55"/>
+      <c r="U108" s="55"/>
+      <c r="V108" s="55"/>
+      <c r="W108" s="55"/>
+      <c r="X108" s="55"/>
+      <c r="Y108" s="55"/>
     </row>
     <row r="109" spans="6:25">
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="35"/>
-      <c r="N109" s="35"/>
-      <c r="O109" s="35"/>
-      <c r="P109" s="35"/>
-      <c r="Q109" s="35"/>
-      <c r="R109" s="35"/>
-      <c r="S109" s="35"/>
-      <c r="T109" s="35"/>
-      <c r="U109" s="35"/>
-      <c r="V109" s="35"/>
-      <c r="W109" s="35"/>
-      <c r="X109" s="35"/>
-      <c r="Y109" s="35"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="55"/>
+      <c r="M109" s="55"/>
+      <c r="N109" s="55"/>
+      <c r="O109" s="55"/>
+      <c r="P109" s="55"/>
+      <c r="Q109" s="55"/>
+      <c r="R109" s="55"/>
+      <c r="S109" s="55"/>
+      <c r="T109" s="55"/>
+      <c r="U109" s="55"/>
+      <c r="V109" s="55"/>
+      <c r="W109" s="55"/>
+      <c r="X109" s="55"/>
+      <c r="Y109" s="55"/>
     </row>
     <row r="110" spans="6:25">
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="35"/>
-      <c r="K110" s="35"/>
-      <c r="L110" s="35"/>
-      <c r="M110" s="35"/>
-      <c r="N110" s="35"/>
-      <c r="O110" s="35"/>
-      <c r="P110" s="35"/>
-      <c r="Q110" s="35"/>
-      <c r="R110" s="35"/>
-      <c r="S110" s="35"/>
-      <c r="T110" s="35"/>
-      <c r="U110" s="35"/>
-      <c r="V110" s="35"/>
-      <c r="W110" s="35"/>
-      <c r="X110" s="35"/>
-      <c r="Y110" s="35"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="55"/>
+      <c r="J110" s="55"/>
+      <c r="K110" s="55"/>
+      <c r="L110" s="55"/>
+      <c r="M110" s="55"/>
+      <c r="N110" s="55"/>
+      <c r="O110" s="55"/>
+      <c r="P110" s="55"/>
+      <c r="Q110" s="55"/>
+      <c r="R110" s="55"/>
+      <c r="S110" s="55"/>
+      <c r="T110" s="55"/>
+      <c r="U110" s="55"/>
+      <c r="V110" s="55"/>
+      <c r="W110" s="55"/>
+      <c r="X110" s="55"/>
+      <c r="Y110" s="55"/>
     </row>
     <row r="111" spans="6:25">
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="35"/>
-      <c r="L111" s="35"/>
-      <c r="M111" s="35"/>
-      <c r="N111" s="35"/>
-      <c r="O111" s="35"/>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="35"/>
-      <c r="R111" s="35"/>
-      <c r="S111" s="35"/>
-      <c r="T111" s="35"/>
-      <c r="U111" s="35"/>
-      <c r="V111" s="35"/>
-      <c r="W111" s="35"/>
-      <c r="X111" s="35"/>
-      <c r="Y111" s="35"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="55"/>
+      <c r="L111" s="55"/>
+      <c r="M111" s="55"/>
+      <c r="N111" s="55"/>
+      <c r="O111" s="55"/>
+      <c r="P111" s="55"/>
+      <c r="Q111" s="55"/>
+      <c r="R111" s="55"/>
+      <c r="S111" s="55"/>
+      <c r="T111" s="55"/>
+      <c r="U111" s="55"/>
+      <c r="V111" s="55"/>
+      <c r="W111" s="55"/>
+      <c r="X111" s="55"/>
+      <c r="Y111" s="55"/>
     </row>
     <row r="112" spans="6:25">
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="35"/>
-      <c r="L112" s="35"/>
-      <c r="M112" s="35"/>
-      <c r="N112" s="35"/>
-      <c r="O112" s="35"/>
-      <c r="P112" s="35"/>
-      <c r="Q112" s="35"/>
-      <c r="R112" s="35"/>
-      <c r="S112" s="35"/>
-      <c r="T112" s="35"/>
-      <c r="U112" s="35"/>
-      <c r="V112" s="35"/>
-      <c r="W112" s="35"/>
-      <c r="X112" s="35"/>
-      <c r="Y112" s="35"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="55"/>
+      <c r="K112" s="55"/>
+      <c r="L112" s="55"/>
+      <c r="M112" s="55"/>
+      <c r="N112" s="55"/>
+      <c r="O112" s="55"/>
+      <c r="P112" s="55"/>
+      <c r="Q112" s="55"/>
+      <c r="R112" s="55"/>
+      <c r="S112" s="55"/>
+      <c r="T112" s="55"/>
+      <c r="U112" s="55"/>
+      <c r="V112" s="55"/>
+      <c r="W112" s="55"/>
+      <c r="X112" s="55"/>
+      <c r="Y112" s="55"/>
     </row>
     <row r="113" spans="6:25">
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="35"/>
-      <c r="L113" s="35"/>
-      <c r="M113" s="35"/>
-      <c r="N113" s="35"/>
-      <c r="O113" s="35"/>
-      <c r="P113" s="35"/>
-      <c r="Q113" s="35"/>
-      <c r="R113" s="35"/>
-      <c r="S113" s="35"/>
-      <c r="T113" s="35"/>
-      <c r="U113" s="35"/>
-      <c r="V113" s="35"/>
-      <c r="W113" s="35"/>
-      <c r="X113" s="35"/>
-      <c r="Y113" s="35"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="55"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="55"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="55"/>
+      <c r="P113" s="55"/>
+      <c r="Q113" s="55"/>
+      <c r="R113" s="55"/>
+      <c r="S113" s="55"/>
+      <c r="T113" s="55"/>
+      <c r="U113" s="55"/>
+      <c r="V113" s="55"/>
+      <c r="W113" s="55"/>
+      <c r="X113" s="55"/>
+      <c r="Y113" s="55"/>
     </row>
     <row r="114" spans="6:25">
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="35"/>
-      <c r="L114" s="35"/>
-      <c r="M114" s="35"/>
-      <c r="N114" s="35"/>
-      <c r="O114" s="35"/>
-      <c r="P114" s="35"/>
-      <c r="Q114" s="35"/>
-      <c r="R114" s="35"/>
-      <c r="S114" s="35"/>
-      <c r="T114" s="35"/>
-      <c r="U114" s="35"/>
-      <c r="V114" s="35"/>
-      <c r="W114" s="35"/>
-      <c r="X114" s="35"/>
-      <c r="Y114" s="35"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="55"/>
+      <c r="L114" s="55"/>
+      <c r="M114" s="55"/>
+      <c r="N114" s="55"/>
+      <c r="O114" s="55"/>
+      <c r="P114" s="55"/>
+      <c r="Q114" s="55"/>
+      <c r="R114" s="55"/>
+      <c r="S114" s="55"/>
+      <c r="T114" s="55"/>
+      <c r="U114" s="55"/>
+      <c r="V114" s="55"/>
+      <c r="W114" s="55"/>
+      <c r="X114" s="55"/>
+      <c r="Y114" s="55"/>
     </row>
     <row r="115" spans="6:25">
-      <c r="F115" s="35"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="35"/>
-      <c r="L115" s="35"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="35"/>
-      <c r="O115" s="35"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35"/>
-      <c r="R115" s="35"/>
-      <c r="S115" s="35"/>
-      <c r="T115" s="35"/>
-      <c r="U115" s="35"/>
-      <c r="V115" s="35"/>
-      <c r="W115" s="35"/>
-      <c r="X115" s="35"/>
-      <c r="Y115" s="35"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="55"/>
+      <c r="M115" s="55"/>
+      <c r="N115" s="55"/>
+      <c r="O115" s="55"/>
+      <c r="P115" s="55"/>
+      <c r="Q115" s="55"/>
+      <c r="R115" s="55"/>
+      <c r="S115" s="55"/>
+      <c r="T115" s="55"/>
+      <c r="U115" s="55"/>
+      <c r="V115" s="55"/>
+      <c r="W115" s="55"/>
+      <c r="X115" s="55"/>
+      <c r="Y115" s="55"/>
     </row>
     <row r="116" spans="6:25">
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
-      <c r="J116" s="35"/>
-      <c r="K116" s="35"/>
-      <c r="L116" s="35"/>
-      <c r="M116" s="35"/>
-      <c r="N116" s="35"/>
-      <c r="O116" s="35"/>
-      <c r="P116" s="35"/>
-      <c r="Q116" s="35"/>
-      <c r="R116" s="35"/>
-      <c r="S116" s="35"/>
-      <c r="T116" s="35"/>
-      <c r="U116" s="35"/>
-      <c r="V116" s="35"/>
-      <c r="W116" s="35"/>
-      <c r="X116" s="35"/>
-      <c r="Y116" s="35"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="55"/>
+      <c r="K116" s="55"/>
+      <c r="L116" s="55"/>
+      <c r="M116" s="55"/>
+      <c r="N116" s="55"/>
+      <c r="O116" s="55"/>
+      <c r="P116" s="55"/>
+      <c r="Q116" s="55"/>
+      <c r="R116" s="55"/>
+      <c r="S116" s="55"/>
+      <c r="T116" s="55"/>
+      <c r="U116" s="55"/>
+      <c r="V116" s="55"/>
+      <c r="W116" s="55"/>
+      <c r="X116" s="55"/>
+      <c r="Y116" s="55"/>
     </row>
     <row r="117" spans="6:25">
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="35"/>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="35"/>
-      <c r="O117" s="35"/>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
-      <c r="R117" s="35"/>
-      <c r="S117" s="35"/>
-      <c r="T117" s="35"/>
-      <c r="U117" s="35"/>
-      <c r="V117" s="35"/>
-      <c r="W117" s="35"/>
-      <c r="X117" s="35"/>
-      <c r="Y117" s="35"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="55"/>
+      <c r="J117" s="55"/>
+      <c r="K117" s="55"/>
+      <c r="L117" s="55"/>
+      <c r="M117" s="55"/>
+      <c r="N117" s="55"/>
+      <c r="O117" s="55"/>
+      <c r="P117" s="55"/>
+      <c r="Q117" s="55"/>
+      <c r="R117" s="55"/>
+      <c r="S117" s="55"/>
+      <c r="T117" s="55"/>
+      <c r="U117" s="55"/>
+      <c r="V117" s="55"/>
+      <c r="W117" s="55"/>
+      <c r="X117" s="55"/>
+      <c r="Y117" s="55"/>
     </row>
     <row r="118" spans="6:25">
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="35"/>
-      <c r="L118" s="35"/>
-      <c r="M118" s="35"/>
-      <c r="N118" s="35"/>
-      <c r="O118" s="35"/>
-      <c r="P118" s="35"/>
-      <c r="Q118" s="35"/>
-      <c r="R118" s="35"/>
-      <c r="S118" s="35"/>
-      <c r="T118" s="35"/>
-      <c r="U118" s="35"/>
-      <c r="V118" s="35"/>
-      <c r="W118" s="35"/>
-      <c r="X118" s="35"/>
-      <c r="Y118" s="35"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
+      <c r="L118" s="55"/>
+      <c r="M118" s="55"/>
+      <c r="N118" s="55"/>
+      <c r="O118" s="55"/>
+      <c r="P118" s="55"/>
+      <c r="Q118" s="55"/>
+      <c r="R118" s="55"/>
+      <c r="S118" s="55"/>
+      <c r="T118" s="55"/>
+      <c r="U118" s="55"/>
+      <c r="V118" s="55"/>
+      <c r="W118" s="55"/>
+      <c r="X118" s="55"/>
+      <c r="Y118" s="55"/>
     </row>
     <row r="119" spans="6:25">
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="35"/>
-      <c r="L119" s="35"/>
-      <c r="M119" s="35"/>
-      <c r="N119" s="35"/>
-      <c r="O119" s="35"/>
-      <c r="P119" s="35"/>
-      <c r="Q119" s="35"/>
-      <c r="R119" s="35"/>
-      <c r="S119" s="35"/>
-      <c r="T119" s="35"/>
-      <c r="U119" s="35"/>
-      <c r="V119" s="35"/>
-      <c r="W119" s="35"/>
-      <c r="X119" s="35"/>
-      <c r="Y119" s="35"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="55"/>
+      <c r="K119" s="55"/>
+      <c r="L119" s="55"/>
+      <c r="M119" s="55"/>
+      <c r="N119" s="55"/>
+      <c r="O119" s="55"/>
+      <c r="P119" s="55"/>
+      <c r="Q119" s="55"/>
+      <c r="R119" s="55"/>
+      <c r="S119" s="55"/>
+      <c r="T119" s="55"/>
+      <c r="U119" s="55"/>
+      <c r="V119" s="55"/>
+      <c r="W119" s="55"/>
+      <c r="X119" s="55"/>
+      <c r="Y119" s="55"/>
     </row>
     <row r="120" spans="6:25">
-      <c r="F120" s="35"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="35"/>
-      <c r="L120" s="35"/>
-      <c r="M120" s="35"/>
-      <c r="N120" s="35"/>
-      <c r="O120" s="35"/>
-      <c r="P120" s="35"/>
-      <c r="Q120" s="35"/>
-      <c r="R120" s="35"/>
-      <c r="S120" s="35"/>
-      <c r="T120" s="35"/>
-      <c r="U120" s="35"/>
-      <c r="V120" s="35"/>
-      <c r="W120" s="35"/>
-      <c r="X120" s="35"/>
-      <c r="Y120" s="35"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
+      <c r="L120" s="55"/>
+      <c r="M120" s="55"/>
+      <c r="N120" s="55"/>
+      <c r="O120" s="55"/>
+      <c r="P120" s="55"/>
+      <c r="Q120" s="55"/>
+      <c r="R120" s="55"/>
+      <c r="S120" s="55"/>
+      <c r="T120" s="55"/>
+      <c r="U120" s="55"/>
+      <c r="V120" s="55"/>
+      <c r="W120" s="55"/>
+      <c r="X120" s="55"/>
+      <c r="Y120" s="55"/>
     </row>
     <row r="121" spans="6:25">
-      <c r="F121" s="35"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
-      <c r="K121" s="35"/>
-      <c r="L121" s="35"/>
-      <c r="M121" s="35"/>
-      <c r="N121" s="35"/>
-      <c r="O121" s="35"/>
-      <c r="P121" s="35"/>
-      <c r="Q121" s="35"/>
-      <c r="R121" s="35"/>
-      <c r="S121" s="35"/>
-      <c r="T121" s="35"/>
-      <c r="U121" s="35"/>
-      <c r="V121" s="35"/>
-      <c r="W121" s="35"/>
-      <c r="X121" s="35"/>
-      <c r="Y121" s="35"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="55"/>
+      <c r="L121" s="55"/>
+      <c r="M121" s="55"/>
+      <c r="N121" s="55"/>
+      <c r="O121" s="55"/>
+      <c r="P121" s="55"/>
+      <c r="Q121" s="55"/>
+      <c r="R121" s="55"/>
+      <c r="S121" s="55"/>
+      <c r="T121" s="55"/>
+      <c r="U121" s="55"/>
+      <c r="V121" s="55"/>
+      <c r="W121" s="55"/>
+      <c r="X121" s="55"/>
+      <c r="Y121" s="55"/>
     </row>
     <row r="122" spans="6:25">
-      <c r="F122" s="35"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
-      <c r="K122" s="35"/>
-      <c r="L122" s="35"/>
-      <c r="M122" s="35"/>
-      <c r="N122" s="35"/>
-      <c r="O122" s="35"/>
-      <c r="P122" s="35"/>
-      <c r="Q122" s="35"/>
-      <c r="R122" s="35"/>
-      <c r="S122" s="35"/>
-      <c r="T122" s="35"/>
-      <c r="U122" s="35"/>
-      <c r="V122" s="35"/>
-      <c r="W122" s="35"/>
-      <c r="X122" s="35"/>
-      <c r="Y122" s="35"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
+      <c r="L122" s="55"/>
+      <c r="M122" s="55"/>
+      <c r="N122" s="55"/>
+      <c r="O122" s="55"/>
+      <c r="P122" s="55"/>
+      <c r="Q122" s="55"/>
+      <c r="R122" s="55"/>
+      <c r="S122" s="55"/>
+      <c r="T122" s="55"/>
+      <c r="U122" s="55"/>
+      <c r="V122" s="55"/>
+      <c r="W122" s="55"/>
+      <c r="X122" s="55"/>
+      <c r="Y122" s="55"/>
     </row>
     <row r="123" spans="6:25">
-      <c r="F123" s="35"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-      <c r="K123" s="35"/>
-      <c r="L123" s="35"/>
-      <c r="M123" s="35"/>
-      <c r="N123" s="35"/>
-      <c r="O123" s="35"/>
-      <c r="P123" s="35"/>
-      <c r="Q123" s="35"/>
-      <c r="R123" s="35"/>
-      <c r="S123" s="35"/>
-      <c r="T123" s="35"/>
-      <c r="U123" s="35"/>
-      <c r="V123" s="35"/>
-      <c r="W123" s="35"/>
-      <c r="X123" s="35"/>
-      <c r="Y123" s="35"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="55"/>
+      <c r="L123" s="55"/>
+      <c r="M123" s="55"/>
+      <c r="N123" s="55"/>
+      <c r="O123" s="55"/>
+      <c r="P123" s="55"/>
+      <c r="Q123" s="55"/>
+      <c r="R123" s="55"/>
+      <c r="S123" s="55"/>
+      <c r="T123" s="55"/>
+      <c r="U123" s="55"/>
+      <c r="V123" s="55"/>
+      <c r="W123" s="55"/>
+      <c r="X123" s="55"/>
+      <c r="Y123" s="55"/>
     </row>
     <row r="124" spans="6:25">
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35"/>
-      <c r="N124" s="35"/>
-      <c r="O124" s="35"/>
-      <c r="P124" s="35"/>
-      <c r="Q124" s="35"/>
-      <c r="R124" s="35"/>
-      <c r="S124" s="35"/>
-      <c r="T124" s="35"/>
-      <c r="U124" s="35"/>
-      <c r="V124" s="35"/>
-      <c r="W124" s="35"/>
-      <c r="X124" s="35"/>
-      <c r="Y124" s="35"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
+      <c r="L124" s="55"/>
+      <c r="M124" s="55"/>
+      <c r="N124" s="55"/>
+      <c r="O124" s="55"/>
+      <c r="P124" s="55"/>
+      <c r="Q124" s="55"/>
+      <c r="R124" s="55"/>
+      <c r="S124" s="55"/>
+      <c r="T124" s="55"/>
+      <c r="U124" s="55"/>
+      <c r="V124" s="55"/>
+      <c r="W124" s="55"/>
+      <c r="X124" s="55"/>
+      <c r="Y124" s="55"/>
     </row>
     <row r="125" spans="6:25">
-      <c r="F125" s="35"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="35"/>
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
-      <c r="K125" s="35"/>
-      <c r="L125" s="35"/>
-      <c r="M125" s="35"/>
-      <c r="N125" s="35"/>
-      <c r="O125" s="35"/>
-      <c r="P125" s="35"/>
-      <c r="Q125" s="35"/>
-      <c r="R125" s="35"/>
-      <c r="S125" s="35"/>
-      <c r="T125" s="35"/>
-      <c r="U125" s="35"/>
-      <c r="V125" s="35"/>
-      <c r="W125" s="35"/>
-      <c r="X125" s="35"/>
-      <c r="Y125" s="35"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="55"/>
+      <c r="K125" s="55"/>
+      <c r="L125" s="55"/>
+      <c r="M125" s="55"/>
+      <c r="N125" s="55"/>
+      <c r="O125" s="55"/>
+      <c r="P125" s="55"/>
+      <c r="Q125" s="55"/>
+      <c r="R125" s="55"/>
+      <c r="S125" s="55"/>
+      <c r="T125" s="55"/>
+      <c r="U125" s="55"/>
+      <c r="V125" s="55"/>
+      <c r="W125" s="55"/>
+      <c r="X125" s="55"/>
+      <c r="Y125" s="55"/>
     </row>
     <row r="126" spans="6:25">
-      <c r="F126" s="35"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="35"/>
-      <c r="I126" s="35"/>
-      <c r="J126" s="35"/>
-      <c r="K126" s="35"/>
-      <c r="L126" s="35"/>
-      <c r="M126" s="35"/>
-      <c r="N126" s="35"/>
-      <c r="O126" s="35"/>
-      <c r="P126" s="35"/>
-      <c r="Q126" s="35"/>
-      <c r="R126" s="35"/>
-      <c r="S126" s="35"/>
-      <c r="T126" s="35"/>
-      <c r="U126" s="35"/>
-      <c r="V126" s="35"/>
-      <c r="W126" s="35"/>
-      <c r="X126" s="35"/>
-      <c r="Y126" s="35"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
+      <c r="L126" s="55"/>
+      <c r="M126" s="55"/>
+      <c r="N126" s="55"/>
+      <c r="O126" s="55"/>
+      <c r="P126" s="55"/>
+      <c r="Q126" s="55"/>
+      <c r="R126" s="55"/>
+      <c r="S126" s="55"/>
+      <c r="T126" s="55"/>
+      <c r="U126" s="55"/>
+      <c r="V126" s="55"/>
+      <c r="W126" s="55"/>
+      <c r="X126" s="55"/>
+      <c r="Y126" s="55"/>
     </row>
     <row r="127" spans="6:25">
-      <c r="F127" s="35"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="35"/>
-      <c r="M127" s="35"/>
-      <c r="N127" s="35"/>
-      <c r="O127" s="35"/>
-      <c r="P127" s="35"/>
-      <c r="Q127" s="35"/>
-      <c r="R127" s="35"/>
-      <c r="S127" s="35"/>
-      <c r="T127" s="35"/>
-      <c r="U127" s="35"/>
-      <c r="V127" s="35"/>
-      <c r="W127" s="35"/>
-      <c r="X127" s="35"/>
-      <c r="Y127" s="35"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="55"/>
+      <c r="K127" s="55"/>
+      <c r="L127" s="55"/>
+      <c r="M127" s="55"/>
+      <c r="N127" s="55"/>
+      <c r="O127" s="55"/>
+      <c r="P127" s="55"/>
+      <c r="Q127" s="55"/>
+      <c r="R127" s="55"/>
+      <c r="S127" s="55"/>
+      <c r="T127" s="55"/>
+      <c r="U127" s="55"/>
+      <c r="V127" s="55"/>
+      <c r="W127" s="55"/>
+      <c r="X127" s="55"/>
+      <c r="Y127" s="55"/>
     </row>
     <row r="128" spans="6:25">
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
-      <c r="K128" s="35"/>
-      <c r="L128" s="35"/>
-      <c r="M128" s="35"/>
-      <c r="N128" s="35"/>
-      <c r="O128" s="35"/>
-      <c r="P128" s="35"/>
-      <c r="Q128" s="35"/>
-      <c r="R128" s="35"/>
-      <c r="S128" s="35"/>
-      <c r="T128" s="35"/>
-      <c r="U128" s="35"/>
-      <c r="V128" s="35"/>
-      <c r="W128" s="35"/>
-      <c r="X128" s="35"/>
-      <c r="Y128" s="35"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="55"/>
+      <c r="K128" s="55"/>
+      <c r="L128" s="55"/>
+      <c r="M128" s="55"/>
+      <c r="N128" s="55"/>
+      <c r="O128" s="55"/>
+      <c r="P128" s="55"/>
+      <c r="Q128" s="55"/>
+      <c r="R128" s="55"/>
+      <c r="S128" s="55"/>
+      <c r="T128" s="55"/>
+      <c r="U128" s="55"/>
+      <c r="V128" s="55"/>
+      <c r="W128" s="55"/>
+      <c r="X128" s="55"/>
+      <c r="Y128" s="55"/>
     </row>
     <row r="129" spans="6:25">
-      <c r="F129" s="35"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="35"/>
-      <c r="L129" s="35"/>
-      <c r="M129" s="35"/>
-      <c r="N129" s="35"/>
-      <c r="O129" s="35"/>
-      <c r="P129" s="35"/>
-      <c r="Q129" s="35"/>
-      <c r="R129" s="35"/>
-      <c r="S129" s="35"/>
-      <c r="T129" s="35"/>
-      <c r="U129" s="35"/>
-      <c r="V129" s="35"/>
-      <c r="W129" s="35"/>
-      <c r="X129" s="35"/>
-      <c r="Y129" s="35"/>
+      <c r="F129" s="55"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="55"/>
+      <c r="J129" s="55"/>
+      <c r="K129" s="55"/>
+      <c r="L129" s="55"/>
+      <c r="M129" s="55"/>
+      <c r="N129" s="55"/>
+      <c r="O129" s="55"/>
+      <c r="P129" s="55"/>
+      <c r="Q129" s="55"/>
+      <c r="R129" s="55"/>
+      <c r="S129" s="55"/>
+      <c r="T129" s="55"/>
+      <c r="U129" s="55"/>
+      <c r="V129" s="55"/>
+      <c r="W129" s="55"/>
+      <c r="X129" s="55"/>
+      <c r="Y129" s="55"/>
     </row>
     <row r="130" spans="6:25">
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="35"/>
-      <c r="I130" s="35"/>
-      <c r="J130" s="35"/>
-      <c r="K130" s="35"/>
-      <c r="L130" s="35"/>
-      <c r="M130" s="35"/>
-      <c r="N130" s="35"/>
-      <c r="O130" s="35"/>
-      <c r="P130" s="35"/>
-      <c r="Q130" s="35"/>
-      <c r="R130" s="35"/>
-      <c r="S130" s="35"/>
-      <c r="T130" s="35"/>
-      <c r="U130" s="35"/>
-      <c r="V130" s="35"/>
-      <c r="W130" s="35"/>
-      <c r="X130" s="35"/>
-      <c r="Y130" s="35"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="55"/>
+      <c r="J130" s="55"/>
+      <c r="K130" s="55"/>
+      <c r="L130" s="55"/>
+      <c r="M130" s="55"/>
+      <c r="N130" s="55"/>
+      <c r="O130" s="55"/>
+      <c r="P130" s="55"/>
+      <c r="Q130" s="55"/>
+      <c r="R130" s="55"/>
+      <c r="S130" s="55"/>
+      <c r="T130" s="55"/>
+      <c r="U130" s="55"/>
+      <c r="V130" s="55"/>
+      <c r="W130" s="55"/>
+      <c r="X130" s="55"/>
+      <c r="Y130" s="55"/>
     </row>
     <row r="131" spans="6:25">
-      <c r="F131" s="35"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="35"/>
-      <c r="J131" s="35"/>
-      <c r="K131" s="35"/>
-      <c r="L131" s="35"/>
-      <c r="M131" s="35"/>
-      <c r="N131" s="35"/>
-      <c r="O131" s="35"/>
-      <c r="P131" s="35"/>
-      <c r="Q131" s="35"/>
-      <c r="R131" s="35"/>
-      <c r="S131" s="35"/>
-      <c r="T131" s="35"/>
-      <c r="U131" s="35"/>
-      <c r="V131" s="35"/>
-      <c r="W131" s="35"/>
-      <c r="X131" s="35"/>
-      <c r="Y131" s="35"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="55"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="55"/>
+      <c r="L131" s="55"/>
+      <c r="M131" s="55"/>
+      <c r="N131" s="55"/>
+      <c r="O131" s="55"/>
+      <c r="P131" s="55"/>
+      <c r="Q131" s="55"/>
+      <c r="R131" s="55"/>
+      <c r="S131" s="55"/>
+      <c r="T131" s="55"/>
+      <c r="U131" s="55"/>
+      <c r="V131" s="55"/>
+      <c r="W131" s="55"/>
+      <c r="X131" s="55"/>
+      <c r="Y131" s="55"/>
     </row>
     <row r="132" spans="6:25">
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="35"/>
-      <c r="J132" s="35"/>
-      <c r="K132" s="35"/>
-      <c r="L132" s="35"/>
-      <c r="M132" s="35"/>
-      <c r="N132" s="35"/>
-      <c r="O132" s="35"/>
-      <c r="P132" s="35"/>
-      <c r="Q132" s="35"/>
-      <c r="R132" s="35"/>
-      <c r="S132" s="35"/>
-      <c r="T132" s="35"/>
-      <c r="U132" s="35"/>
-      <c r="V132" s="35"/>
-      <c r="W132" s="35"/>
-      <c r="X132" s="35"/>
-      <c r="Y132" s="35"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="55"/>
+      <c r="K132" s="55"/>
+      <c r="L132" s="55"/>
+      <c r="M132" s="55"/>
+      <c r="N132" s="55"/>
+      <c r="O132" s="55"/>
+      <c r="P132" s="55"/>
+      <c r="Q132" s="55"/>
+      <c r="R132" s="55"/>
+      <c r="S132" s="55"/>
+      <c r="T132" s="55"/>
+      <c r="U132" s="55"/>
+      <c r="V132" s="55"/>
+      <c r="W132" s="55"/>
+      <c r="X132" s="55"/>
+      <c r="Y132" s="55"/>
     </row>
     <row r="133" spans="6:25">
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35"/>
-      <c r="K133" s="35"/>
-      <c r="L133" s="35"/>
-      <c r="M133" s="35"/>
-      <c r="N133" s="35"/>
-      <c r="O133" s="35"/>
-      <c r="P133" s="35"/>
-      <c r="Q133" s="35"/>
-      <c r="R133" s="35"/>
-      <c r="S133" s="35"/>
-      <c r="T133" s="35"/>
-      <c r="U133" s="35"/>
-      <c r="V133" s="35"/>
-      <c r="W133" s="35"/>
-      <c r="X133" s="35"/>
-      <c r="Y133" s="35"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="55"/>
+      <c r="K133" s="55"/>
+      <c r="L133" s="55"/>
+      <c r="M133" s="55"/>
+      <c r="N133" s="55"/>
+      <c r="O133" s="55"/>
+      <c r="P133" s="55"/>
+      <c r="Q133" s="55"/>
+      <c r="R133" s="55"/>
+      <c r="S133" s="55"/>
+      <c r="T133" s="55"/>
+      <c r="U133" s="55"/>
+      <c r="V133" s="55"/>
+      <c r="W133" s="55"/>
+      <c r="X133" s="55"/>
+      <c r="Y133" s="55"/>
     </row>
     <row r="134" spans="6:25">
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="35"/>
-      <c r="J134" s="35"/>
-      <c r="K134" s="35"/>
-      <c r="L134" s="35"/>
-      <c r="M134" s="35"/>
-      <c r="N134" s="35"/>
-      <c r="O134" s="35"/>
-      <c r="P134" s="35"/>
-      <c r="Q134" s="35"/>
-      <c r="R134" s="35"/>
-      <c r="S134" s="35"/>
-      <c r="T134" s="35"/>
-      <c r="U134" s="35"/>
-      <c r="V134" s="35"/>
-      <c r="W134" s="35"/>
-      <c r="X134" s="35"/>
-      <c r="Y134" s="35"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="55"/>
+      <c r="J134" s="55"/>
+      <c r="K134" s="55"/>
+      <c r="L134" s="55"/>
+      <c r="M134" s="55"/>
+      <c r="N134" s="55"/>
+      <c r="O134" s="55"/>
+      <c r="P134" s="55"/>
+      <c r="Q134" s="55"/>
+      <c r="R134" s="55"/>
+      <c r="S134" s="55"/>
+      <c r="T134" s="55"/>
+      <c r="U134" s="55"/>
+      <c r="V134" s="55"/>
+      <c r="W134" s="55"/>
+      <c r="X134" s="55"/>
+      <c r="Y134" s="55"/>
     </row>
     <row r="135" spans="6:25">
-      <c r="F135" s="35"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="35"/>
-      <c r="J135" s="35"/>
-      <c r="K135" s="35"/>
-      <c r="L135" s="35"/>
-      <c r="M135" s="35"/>
-      <c r="N135" s="35"/>
-      <c r="O135" s="35"/>
-      <c r="P135" s="35"/>
-      <c r="Q135" s="35"/>
-      <c r="R135" s="35"/>
-      <c r="S135" s="35"/>
-      <c r="T135" s="35"/>
-      <c r="U135" s="35"/>
-      <c r="V135" s="35"/>
-      <c r="W135" s="35"/>
-      <c r="X135" s="35"/>
-      <c r="Y135" s="35"/>
+      <c r="F135" s="55"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="55"/>
+      <c r="I135" s="55"/>
+      <c r="J135" s="55"/>
+      <c r="K135" s="55"/>
+      <c r="L135" s="55"/>
+      <c r="M135" s="55"/>
+      <c r="N135" s="55"/>
+      <c r="O135" s="55"/>
+      <c r="P135" s="55"/>
+      <c r="Q135" s="55"/>
+      <c r="R135" s="55"/>
+      <c r="S135" s="55"/>
+      <c r="T135" s="55"/>
+      <c r="U135" s="55"/>
+      <c r="V135" s="55"/>
+      <c r="W135" s="55"/>
+      <c r="X135" s="55"/>
+      <c r="Y135" s="55"/>
     </row>
     <row r="136" spans="6:25">
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="35"/>
-      <c r="I136" s="35"/>
-      <c r="J136" s="35"/>
-      <c r="K136" s="35"/>
-      <c r="L136" s="35"/>
-      <c r="M136" s="35"/>
-      <c r="N136" s="35"/>
-      <c r="O136" s="35"/>
-      <c r="P136" s="35"/>
-      <c r="Q136" s="35"/>
-      <c r="R136" s="35"/>
-      <c r="S136" s="35"/>
-      <c r="T136" s="35"/>
-      <c r="U136" s="35"/>
-      <c r="V136" s="35"/>
-      <c r="W136" s="35"/>
-      <c r="X136" s="35"/>
-      <c r="Y136" s="35"/>
+      <c r="F136" s="55"/>
+      <c r="G136" s="55"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="55"/>
+      <c r="J136" s="55"/>
+      <c r="K136" s="55"/>
+      <c r="L136" s="55"/>
+      <c r="M136" s="55"/>
+      <c r="N136" s="55"/>
+      <c r="O136" s="55"/>
+      <c r="P136" s="55"/>
+      <c r="Q136" s="55"/>
+      <c r="R136" s="55"/>
+      <c r="S136" s="55"/>
+      <c r="T136" s="55"/>
+      <c r="U136" s="55"/>
+      <c r="V136" s="55"/>
+      <c r="W136" s="55"/>
+      <c r="X136" s="55"/>
+      <c r="Y136" s="55"/>
     </row>
     <row r="137" spans="6:25">
-      <c r="F137" s="35"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="35"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="35"/>
-      <c r="L137" s="35"/>
-      <c r="M137" s="35"/>
-      <c r="N137" s="35"/>
-      <c r="O137" s="35"/>
-      <c r="P137" s="35"/>
-      <c r="Q137" s="35"/>
-      <c r="R137" s="35"/>
-      <c r="S137" s="35"/>
-      <c r="T137" s="35"/>
-      <c r="U137" s="35"/>
-      <c r="V137" s="35"/>
-      <c r="W137" s="35"/>
-      <c r="X137" s="35"/>
-      <c r="Y137" s="35"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="55"/>
+      <c r="J137" s="55"/>
+      <c r="K137" s="55"/>
+      <c r="L137" s="55"/>
+      <c r="M137" s="55"/>
+      <c r="N137" s="55"/>
+      <c r="O137" s="55"/>
+      <c r="P137" s="55"/>
+      <c r="Q137" s="55"/>
+      <c r="R137" s="55"/>
+      <c r="S137" s="55"/>
+      <c r="T137" s="55"/>
+      <c r="U137" s="55"/>
+      <c r="V137" s="55"/>
+      <c r="W137" s="55"/>
+      <c r="X137" s="55"/>
+      <c r="Y137" s="55"/>
     </row>
     <row r="138" spans="6:25">
-      <c r="F138" s="35"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="35"/>
-      <c r="I138" s="35"/>
-      <c r="J138" s="35"/>
-      <c r="K138" s="35"/>
-      <c r="L138" s="35"/>
-      <c r="M138" s="35"/>
-      <c r="N138" s="35"/>
-      <c r="O138" s="35"/>
-      <c r="P138" s="35"/>
-      <c r="Q138" s="35"/>
-      <c r="R138" s="35"/>
-      <c r="S138" s="35"/>
-      <c r="T138" s="35"/>
-      <c r="U138" s="35"/>
-      <c r="V138" s="35"/>
-      <c r="W138" s="35"/>
-      <c r="X138" s="35"/>
-      <c r="Y138" s="35"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="55"/>
+      <c r="J138" s="55"/>
+      <c r="K138" s="55"/>
+      <c r="L138" s="55"/>
+      <c r="M138" s="55"/>
+      <c r="N138" s="55"/>
+      <c r="O138" s="55"/>
+      <c r="P138" s="55"/>
+      <c r="Q138" s="55"/>
+      <c r="R138" s="55"/>
+      <c r="S138" s="55"/>
+      <c r="T138" s="55"/>
+      <c r="U138" s="55"/>
+      <c r="V138" s="55"/>
+      <c r="W138" s="55"/>
+      <c r="X138" s="55"/>
+      <c r="Y138" s="55"/>
     </row>
     <row r="139" spans="6:25">
-      <c r="F139" s="35"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="35"/>
-      <c r="I139" s="35"/>
-      <c r="J139" s="35"/>
-      <c r="K139" s="35"/>
-      <c r="L139" s="35"/>
-      <c r="M139" s="35"/>
-      <c r="N139" s="35"/>
-      <c r="O139" s="35"/>
-      <c r="P139" s="35"/>
-      <c r="Q139" s="35"/>
-      <c r="R139" s="35"/>
-      <c r="S139" s="35"/>
-      <c r="T139" s="35"/>
-      <c r="U139" s="35"/>
-      <c r="V139" s="35"/>
-      <c r="W139" s="35"/>
-      <c r="X139" s="35"/>
-      <c r="Y139" s="35"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="55"/>
+      <c r="J139" s="55"/>
+      <c r="K139" s="55"/>
+      <c r="L139" s="55"/>
+      <c r="M139" s="55"/>
+      <c r="N139" s="55"/>
+      <c r="O139" s="55"/>
+      <c r="P139" s="55"/>
+      <c r="Q139" s="55"/>
+      <c r="R139" s="55"/>
+      <c r="S139" s="55"/>
+      <c r="T139" s="55"/>
+      <c r="U139" s="55"/>
+      <c r="V139" s="55"/>
+      <c r="W139" s="55"/>
+      <c r="X139" s="55"/>
+      <c r="Y139" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="F135:Y135"/>
+    <mergeCell ref="F136:Y136"/>
+    <mergeCell ref="F137:Y137"/>
+    <mergeCell ref="F138:Y138"/>
+    <mergeCell ref="F139:Y139"/>
+    <mergeCell ref="F134:Y134"/>
+    <mergeCell ref="F123:Y123"/>
+    <mergeCell ref="F124:Y124"/>
+    <mergeCell ref="F125:Y125"/>
+    <mergeCell ref="F126:Y126"/>
+    <mergeCell ref="F127:Y127"/>
+    <mergeCell ref="F128:Y128"/>
+    <mergeCell ref="F129:Y129"/>
+    <mergeCell ref="F130:Y130"/>
+    <mergeCell ref="F131:Y131"/>
+    <mergeCell ref="F132:Y132"/>
+    <mergeCell ref="F133:Y133"/>
+    <mergeCell ref="F122:Y122"/>
+    <mergeCell ref="F111:Y111"/>
+    <mergeCell ref="F112:Y112"/>
+    <mergeCell ref="F113:Y113"/>
+    <mergeCell ref="F114:Y114"/>
+    <mergeCell ref="F115:Y115"/>
+    <mergeCell ref="F116:Y116"/>
+    <mergeCell ref="F117:Y117"/>
+    <mergeCell ref="F118:Y118"/>
+    <mergeCell ref="F119:Y119"/>
+    <mergeCell ref="F120:Y120"/>
+    <mergeCell ref="F121:Y121"/>
+    <mergeCell ref="F110:Y110"/>
+    <mergeCell ref="F99:Y99"/>
+    <mergeCell ref="F100:Y100"/>
+    <mergeCell ref="F101:Y101"/>
+    <mergeCell ref="F102:Y102"/>
+    <mergeCell ref="F103:Y103"/>
+    <mergeCell ref="F104:Y104"/>
+    <mergeCell ref="F105:Y105"/>
+    <mergeCell ref="F106:Y106"/>
+    <mergeCell ref="F107:Y107"/>
+    <mergeCell ref="F108:Y108"/>
+    <mergeCell ref="F109:Y109"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="F98:Y98"/>
+    <mergeCell ref="F87:Y87"/>
+    <mergeCell ref="F88:Y88"/>
+    <mergeCell ref="F89:Y89"/>
+    <mergeCell ref="F90:Y90"/>
+    <mergeCell ref="F91:Y91"/>
+    <mergeCell ref="F92:Y92"/>
+    <mergeCell ref="F93:Y93"/>
+    <mergeCell ref="F94:Y94"/>
+    <mergeCell ref="F95:Y95"/>
+    <mergeCell ref="F96:Y96"/>
+    <mergeCell ref="F97:Y97"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G39:H39"/>
@@ -5501,60 +7641,6 @@
     <mergeCell ref="F47:K47"/>
     <mergeCell ref="F48:K48"/>
     <mergeCell ref="F49:K49"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="F98:Y98"/>
-    <mergeCell ref="F87:Y87"/>
-    <mergeCell ref="F88:Y88"/>
-    <mergeCell ref="F89:Y89"/>
-    <mergeCell ref="F90:Y90"/>
-    <mergeCell ref="F91:Y91"/>
-    <mergeCell ref="F92:Y92"/>
-    <mergeCell ref="F93:Y93"/>
-    <mergeCell ref="F94:Y94"/>
-    <mergeCell ref="F95:Y95"/>
-    <mergeCell ref="F96:Y96"/>
-    <mergeCell ref="F97:Y97"/>
-    <mergeCell ref="F110:Y110"/>
-    <mergeCell ref="F99:Y99"/>
-    <mergeCell ref="F100:Y100"/>
-    <mergeCell ref="F101:Y101"/>
-    <mergeCell ref="F102:Y102"/>
-    <mergeCell ref="F103:Y103"/>
-    <mergeCell ref="F104:Y104"/>
-    <mergeCell ref="F105:Y105"/>
-    <mergeCell ref="F106:Y106"/>
-    <mergeCell ref="F107:Y107"/>
-    <mergeCell ref="F108:Y108"/>
-    <mergeCell ref="F109:Y109"/>
-    <mergeCell ref="F122:Y122"/>
-    <mergeCell ref="F111:Y111"/>
-    <mergeCell ref="F112:Y112"/>
-    <mergeCell ref="F113:Y113"/>
-    <mergeCell ref="F114:Y114"/>
-    <mergeCell ref="F115:Y115"/>
-    <mergeCell ref="F116:Y116"/>
-    <mergeCell ref="F117:Y117"/>
-    <mergeCell ref="F118:Y118"/>
-    <mergeCell ref="F119:Y119"/>
-    <mergeCell ref="F120:Y120"/>
-    <mergeCell ref="F121:Y121"/>
-    <mergeCell ref="F134:Y134"/>
-    <mergeCell ref="F123:Y123"/>
-    <mergeCell ref="F124:Y124"/>
-    <mergeCell ref="F125:Y125"/>
-    <mergeCell ref="F126:Y126"/>
-    <mergeCell ref="F127:Y127"/>
-    <mergeCell ref="F128:Y128"/>
-    <mergeCell ref="F129:Y129"/>
-    <mergeCell ref="F130:Y130"/>
-    <mergeCell ref="F131:Y131"/>
-    <mergeCell ref="F132:Y132"/>
-    <mergeCell ref="F133:Y133"/>
-    <mergeCell ref="F135:Y135"/>
-    <mergeCell ref="F136:Y136"/>
-    <mergeCell ref="F137:Y137"/>
-    <mergeCell ref="F138:Y138"/>
-    <mergeCell ref="F139:Y139"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="http://user.name/"/>
@@ -5593,7 +7679,7 @@
       <c r="B2" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6168,7 +8254,7 @@
       <c r="C52" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="D52" s="53"/>
+      <c r="D52" s="48"/>
       <c r="I52" s="9" t="s">
         <v>430</v>
       </c>
@@ -6206,18 +8292,18 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="16.5">
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="46" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="45" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6252,107 +8338,107 @@
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="45" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="C71" s="49"/>
+      <c r="C71" s="44"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="C72" s="49"/>
+      <c r="C72" s="44"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="C73" s="49"/>
+      <c r="C73" s="44"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="C75" s="49"/>
+      <c r="C75" s="44"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="C77" s="49"/>
+      <c r="C77" s="44"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
     </row>
     <row r="81" spans="2:3" ht="26.25">
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
     </row>
     <row r="82" spans="2:3" ht="33">
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="42" t="s">
         <v>442</v>
       </c>
-      <c r="C82" s="47"/>
+      <c r="C82" s="42"/>
     </row>
     <row r="83" spans="2:3" ht="66">
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="C83" s="45"/>
+      <c r="C83" s="40"/>
     </row>
     <row r="84" spans="2:3" ht="49.5">
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="C84" s="45"/>
+      <c r="C84" s="40"/>
     </row>
     <row r="85" spans="2:3" ht="33">
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="C85" s="45"/>
+      <c r="C85" s="40"/>
     </row>
     <row r="86" spans="2:3" ht="66">
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="C86" s="45"/>
+      <c r="C86" s="40"/>
     </row>
     <row r="87" spans="2:3" ht="16.5">
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="C87" s="46"/>
+      <c r="C87" s="41"/>
     </row>
     <row r="88" spans="2:3" ht="33">
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="C88" s="46"/>
+      <c r="C88" s="41"/>
     </row>
     <row r="89" spans="2:3" ht="82.5">
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="C89" s="45"/>
+      <c r="C89" s="40"/>
     </row>
     <row r="90" spans="2:3" ht="49.5">
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="C90" s="45"/>
+      <c r="C90" s="40"/>
     </row>
     <row r="91" spans="2:3" ht="49.5">
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="40" t="s">
         <v>433</v>
       </c>
-      <c r="C91" s="45"/>
+      <c r="C91" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6893,7 +8979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
